--- a/1.原文件/条件要求较简单的部分岗位岗位要求-模拟数据_v1.xlsx
+++ b/1.原文件/条件要求较简单的部分岗位岗位要求-模拟数据_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="14540"/>
+    <workbookView windowWidth="31800" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="明细表 (代称)" sheetId="7" r:id="rId1"/>
@@ -235,7 +235,7 @@
 6.具备软件类中级及以上证书或中级及以上专业技术资格者优先。</t>
   </si>
   <si>
-    <t>岗位7</t>
+    <t>系统架构师</t>
   </si>
   <si>
     <t>1.负责能源经济等领域专题研究，编制研究报告，完成成果整理与报送等工作；
@@ -1951,9 +1951,9 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
